--- a/posthoc_comparisons_LB_pairwise.xlsx
+++ b/posthoc_comparisons_LB_pairwise.xlsx
@@ -1,21 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3F3ABCD68F79A8D366075C52F37BD2725ACDFB50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>t.ratio</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+  <si>
+    <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +306,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +358,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +427,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,111 +603,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>t.ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-1.25)</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.898263120998601</v>
+        <v>0.89826312099860095</v>
       </c>
       <c r="C2">
         <v>0.1837877302410085</v>
       </c>
       <c r="D2">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>-0.5243911954795988</v>
+        <v>-0.52439119547959878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9378213759466513</v>
+        <v>0.93782137594665127</v>
       </c>
       <c r="C3">
         <v>0.1148077507582479</v>
       </c>
       <c r="D3">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-0.5243911954795989</v>
+        <v>-0.52439119547959889</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9329520363809657</v>
+        <v>0.93295203638096569</v>
       </c>
       <c r="C4">
-        <v>0.06215697667149413</v>
+        <v>6.2156976671494127E-2</v>
       </c>
       <c r="D4">
         <v>64.97070198098794</v>
@@ -466,42 +701,38 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G4">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8380364079415666</v>
+        <v>0.83803640794156664</v>
       </c>
       <c r="C5">
-        <v>0.1898473017518957</v>
+        <v>0.18984730175189571</v>
       </c>
       <c r="D5">
-        <v>65.78372031180803</v>
+        <v>65.783720311808025</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.7799730631988563</v>
+        <v>-0.77997306319885629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8749423624510275</v>
+        <v>0.87494236245102752</v>
       </c>
       <c r="C6">
         <v>0.1310308359450886</v>
@@ -513,23 +744,21 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>-0.8920793867472245</v>
+        <v>-0.89207938674722453</v>
       </c>
       <c r="G6">
-        <v>0.9999999999999684</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.99999999999996836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8558086518915202</v>
+        <v>0.85580865189152022</v>
       </c>
       <c r="C7">
-        <v>0.127923603276783</v>
+        <v>0.12792360327678301</v>
       </c>
       <c r="D7">
         <v>64.97070198098794</v>
@@ -541,48 +770,44 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G7">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7687413506256822</v>
+        <v>0.76874135062568216</v>
       </c>
       <c r="C8">
-        <v>0.2111798535063051</v>
+        <v>0.21117985350630511</v>
       </c>
       <c r="D8">
-        <v>65.87710990956546</v>
+        <v>65.877109909565462</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.9573807280522705</v>
+        <v>-0.95738072805227048</v>
       </c>
       <c r="G8">
-        <v>0.9999999999989806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999999898059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8025956474639542</v>
+        <v>0.80259564746395418</v>
       </c>
       <c r="C9">
-        <v>0.1684808702769149</v>
+        <v>0.16848087027691491</v>
       </c>
       <c r="D9">
-        <v>65.79777140787897</v>
+        <v>65.797771407878969</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -591,20 +816,18 @@
         <v>-1.047562188936094</v>
       </c>
       <c r="G9">
-        <v>0.9999999999322755</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999999993227551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0.7843458615856217</v>
       </c>
       <c r="C10">
-        <v>0.1828968471254659</v>
+        <v>0.18289684712546589</v>
       </c>
       <c r="D10">
         <v>64.97070198098794</v>
@@ -616,20 +839,18 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G10">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7045489615702372</v>
+        <v>0.70454896157023716</v>
       </c>
       <c r="C11">
-        <v>0.2376756037465099</v>
+        <v>0.23767560374650989</v>
       </c>
       <c r="D11">
         <v>65.81599363016754</v>
@@ -641,23 +862,21 @@
         <v>-1.038100869730461</v>
       </c>
       <c r="G11">
-        <v>0.9999999999550779</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999995507793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7355763151302894</v>
+        <v>0.73557631513028943</v>
       </c>
       <c r="C12">
-        <v>0.2078836122182939</v>
+        <v>0.20788361221829391</v>
       </c>
       <c r="D12">
-        <v>65.64139024090233</v>
+        <v>65.641390240902325</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -666,48 +885,44 @@
         <v>-1.08664751569715</v>
       </c>
       <c r="G12">
-        <v>0.999999999655291</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-1.25)</t>
-        </is>
+        <v>0.99999999965529096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1.044038605196296</v>
       </c>
       <c r="C13">
-        <v>0.08580307147540997</v>
+        <v>8.580307147540997E-2</v>
       </c>
       <c r="D13">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5243911954795989</v>
+        <v>0.52439119547959889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>1.038617766411028</v>
+        <v>1.0386177664110281</v>
       </c>
       <c r="C14">
         <v>0.2110288068598061</v>
       </c>
       <c r="D14">
-        <v>64.91741013502846</v>
+        <v>64.917410135028462</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -719,17 +934,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.9329520363809657</v>
+        <v>0.93295203638096569</v>
       </c>
       <c r="C15">
-        <v>0.06215697667149413</v>
+        <v>6.2156976671494127E-2</v>
       </c>
       <c r="D15">
         <v>64.97070198098794</v>
@@ -741,48 +954,44 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G15">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.9740379427782277</v>
+        <v>0.97403794277822775</v>
       </c>
       <c r="C16">
-        <v>0.09331076545746876</v>
+        <v>9.3310765457468761E-2</v>
       </c>
       <c r="D16">
-        <v>64.29769897812744</v>
+        <v>64.297698978127443</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-0.2745887669178362</v>
+        <v>-0.27458876691783618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>0.9527371567254325</v>
+        <v>0.95273715672543247</v>
       </c>
       <c r="C17">
-        <v>0.2192268753953389</v>
+        <v>0.21922687539533889</v>
       </c>
       <c r="D17">
-        <v>64.36208958720066</v>
+        <v>64.362089587200657</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -794,17 +1003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8558086518915202</v>
+        <v>0.85580865189152022</v>
       </c>
       <c r="C18">
-        <v>0.127923603276783</v>
+        <v>0.12792360327678301</v>
       </c>
       <c r="D18">
         <v>64.97070198098794</v>
@@ -816,70 +1023,64 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G18">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.8934972712357454</v>
       </c>
       <c r="C19">
-        <v>0.140068658235408</v>
+        <v>0.14006865823540801</v>
       </c>
       <c r="D19">
-        <v>64.22531284942488</v>
+        <v>64.225312849424881</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-0.7183513753206769</v>
+        <v>-0.71835137532067694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8731805227778502</v>
+        <v>0.87318052277785019</v>
       </c>
       <c r="C20">
-        <v>0.2449165116783732</v>
+        <v>0.24491651167837319</v>
       </c>
       <c r="D20">
-        <v>64.16831689823209</v>
+        <v>64.168316898232092</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-0.4834896373644016</v>
+        <v>-0.48348963736440159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0.7843458615856217</v>
       </c>
       <c r="C21">
-        <v>0.1828968471254659</v>
+        <v>0.18289684712546589</v>
       </c>
       <c r="D21">
         <v>64.97070198098794</v>
@@ -891,95 +1092,87 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G21">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.8188873593213397</v>
+        <v>0.81888735932133971</v>
       </c>
       <c r="C22">
-        <v>0.1904225152034232</v>
+        <v>0.19042251520342321</v>
       </c>
       <c r="D22">
-        <v>64.41112707295835</v>
+        <v>64.411127072958351</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-0.8592515988422229</v>
+        <v>-0.85925159884222291</v>
       </c>
       <c r="G22">
-        <v>0.9999999999999953</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999999999534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0.9948078176819436</v>
       </c>
       <c r="C23">
-        <v>0.1274859624133836</v>
+        <v>0.12748596241338361</v>
       </c>
       <c r="D23">
-        <v>64.57340236288607</v>
+        <v>64.573402362886071</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>-0.04062156688881457</v>
+        <v>-4.0621566888814568E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.8935991751047898</v>
+        <v>0.89359917510478981</v>
       </c>
       <c r="C24">
         <v>0.1027002991558281</v>
       </c>
       <c r="D24">
-        <v>65.8718932464661</v>
+        <v>65.871893246466101</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>-0.9788489422860667</v>
+        <v>-0.97884894228606667</v>
       </c>
       <c r="G24">
-        <v>0.9999999999970622</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999999706224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.9329520363809657</v>
+        <v>0.93295203638096569</v>
       </c>
       <c r="C25">
-        <v>0.06215697667149413</v>
+        <v>6.2156976671494127E-2</v>
       </c>
       <c r="D25">
         <v>64.97070198098794</v>
@@ -991,14 +1184,12 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G25">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0.9125497390456192</v>
@@ -1007,54 +1198,50 @@
         <v>0.1596138048156234</v>
       </c>
       <c r="D26">
-        <v>64.16057813283587</v>
+        <v>64.160578132835866</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>-0.5231995957498524</v>
+        <v>-0.52319959574985242</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.8197097766615767</v>
+        <v>0.81970977666157674</v>
       </c>
       <c r="C27">
-        <v>0.1502998170962959</v>
+        <v>0.15029981709629589</v>
       </c>
       <c r="D27">
-        <v>65.65971427071793</v>
+        <v>65.659714270717927</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-1.084248469364724</v>
+        <v>-1.0842484693647241</v>
       </c>
       <c r="G27">
         <v>0.9999999996870802</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.8558086518915202</v>
+        <v>0.85580865189152022</v>
       </c>
       <c r="C28">
-        <v>0.127923603276783</v>
+        <v>0.12792360327678301</v>
       </c>
       <c r="D28">
         <v>64.97070198098794</v>
@@ -1066,48 +1253,44 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G28">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.8363488844492278</v>
+        <v>0.83634888444922784</v>
       </c>
       <c r="C29">
-        <v>0.202894123368654</v>
+        <v>0.20289412336865401</v>
       </c>
       <c r="D29">
-        <v>64.24173658256879</v>
+        <v>64.241736582568791</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>-0.7366572647769467</v>
+        <v>-0.73665726477694671</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7512613591890617</v>
+        <v>0.75126135918906167</v>
       </c>
       <c r="C30">
-        <v>0.196169681283457</v>
+        <v>0.19616968128345699</v>
       </c>
       <c r="D30">
-        <v>65.4811834496501</v>
+        <v>65.481183449650104</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1116,20 +1299,18 @@
         <v>-1.09528650951101</v>
       </c>
       <c r="G30">
-        <v>0.999999999513448</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-1.25) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999951344798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0.7843458615856217</v>
       </c>
       <c r="C31">
-        <v>0.1828968471254659</v>
+        <v>0.18289684712546589</v>
       </c>
       <c r="D31">
         <v>64.97070198098794</v>
@@ -1141,70 +1322,64 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G31">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered1.19 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.898263120998601</v>
+        <v>0.89826312099860095</v>
       </c>
       <c r="C32">
         <v>0.1837877302410085</v>
       </c>
       <c r="D32">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>-0.5243911954795988</v>
+        <v>-0.52439119547959878</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.9378213759466513</v>
+        <v>0.93782137594665127</v>
       </c>
       <c r="C33">
         <v>0.1148077507582479</v>
       </c>
       <c r="D33">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>-0.5243911954795989</v>
+        <v>-0.52439119547959889</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.9173125932725393</v>
+        <v>0.91731259327253933</v>
       </c>
       <c r="C34">
-        <v>0.07600200551716238</v>
+        <v>7.600200551716238E-2</v>
       </c>
       <c r="D34">
         <v>64.97070198098794</v>
@@ -1216,48 +1391,44 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G34">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.8239880729643114</v>
+        <v>0.82398807296431142</v>
       </c>
       <c r="C35">
-        <v>0.1931857955091633</v>
+        <v>0.19318579550916329</v>
       </c>
       <c r="D35">
-        <v>65.82387674031351</v>
+        <v>65.823876740313509</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>-0.8257514527535099</v>
+        <v>-0.82575145275350992</v>
       </c>
       <c r="G35">
-        <v>0.9999999999999994</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.8602753583960437</v>
+        <v>0.86027535839604374</v>
       </c>
       <c r="C36">
-        <v>0.1376040342908725</v>
+        <v>0.13760403429087251</v>
       </c>
       <c r="D36">
-        <v>65.87757700011078</v>
+        <v>65.877577000110776</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1266,17 +1437,15 @@
         <v>-0.9409158220827919</v>
       </c>
       <c r="G36">
-        <v>0.9999999999995594</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999999999955935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>0.8407140249440845</v>
+        <v>0.84071402494408454</v>
       </c>
       <c r="C37">
         <v>0.1400292833878034</v>
@@ -1291,20 +1460,18 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G37">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.7551824039135691</v>
+        <v>0.75518240391356906</v>
       </c>
       <c r="C38">
-        <v>0.2164495864878367</v>
+        <v>0.21644958648783669</v>
       </c>
       <c r="D38">
         <v>65.87156960143254</v>
@@ -1313,76 +1480,70 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>-0.9796838829258062</v>
+        <v>-0.97968388292580622</v>
       </c>
       <c r="G38">
-        <v>0.9999999999969412</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999999694122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.7884395836507087</v>
+        <v>0.78843958365070865</v>
       </c>
       <c r="C39">
-        <v>0.1767145653458845</v>
+        <v>0.17671456534588451</v>
       </c>
       <c r="D39">
-        <v>65.76516504821709</v>
+        <v>65.765165048217085</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>-1.060533365712725</v>
+        <v>-1.0605333657127249</v>
       </c>
       <c r="G39">
-        <v>0.9999999998823634</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered0.23 Age_centered-0.47)</t>
-        </is>
+        <v>0.99999999988236343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1.044038605196296</v>
       </c>
       <c r="C40">
-        <v>0.08580307147540997</v>
+        <v>8.580307147540997E-2</v>
       </c>
       <c r="D40">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0.5243911954795989</v>
+        <v>0.52439119547959889</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>1.02120700697671</v>
+        <v>1.0212070069767101</v>
       </c>
       <c r="C41">
-        <v>0.2104938361637403</v>
+        <v>0.21049383616374029</v>
       </c>
       <c r="D41">
-        <v>64.78369711692237</v>
+        <v>64.783697116922369</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1394,17 +1555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.9173125932725393</v>
+        <v>0.91731259327253933</v>
       </c>
       <c r="C42">
-        <v>0.07600200551716238</v>
+        <v>7.600200551716238E-2</v>
       </c>
       <c r="D42">
         <v>64.97070198098794</v>
@@ -1416,45 +1575,41 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G42">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.9577097604092595</v>
+        <v>0.95770976040925948</v>
       </c>
       <c r="C43">
         <v>0.1009558600687863</v>
       </c>
       <c r="D43">
-        <v>64.19804689214145</v>
+        <v>64.198046892141448</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>-0.4099130858306539</v>
+        <v>-0.40991308583065389</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.9359329190866268</v>
+        <v>0.93593291908662679</v>
       </c>
       <c r="C44">
-        <v>0.2235668328247312</v>
+        <v>0.22356683282473119</v>
       </c>
       <c r="D44">
         <v>64.29530546715317</v>
@@ -1463,20 +1618,18 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>-0.2771855563388692</v>
+        <v>-0.27718555633886921</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.8407140249440845</v>
+        <v>0.84071402494408454</v>
       </c>
       <c r="C45">
         <v>0.1400292833878034</v>
@@ -1491,73 +1644,67 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G45">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>(Temperature_centered1.19 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>51</v>
       </c>
       <c r="B46">
         <v>0.8777378979715863</v>
       </c>
       <c r="C46">
-        <v>0.1506468887196294</v>
+        <v>0.15064688871962939</v>
       </c>
       <c r="D46">
-        <v>64.26552012167521</v>
+        <v>64.265520121675209</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>-0.759812485077748</v>
+        <v>-0.75981248507774801</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered0.5)</t>
-        </is>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.9781314617046236</v>
+        <v>0.97813146170462362</v>
       </c>
       <c r="C47">
-        <v>0.1316567292023514</v>
+        <v>0.13165672920235141</v>
       </c>
       <c r="D47">
-        <v>64.41412834622729</v>
+        <v>64.414128346227287</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>-0.16427310314851</v>
+        <v>-0.16427310314851001</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.8786194195377187</v>
+        <v>0.87861941953771872</v>
       </c>
       <c r="C48">
         <v>0.1115725090594188</v>
       </c>
       <c r="D48">
-        <v>65.84290969016214</v>
+        <v>65.842909690162145</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1566,20 +1713,18 @@
         <v>-1.019035787324692</v>
       </c>
       <c r="G48">
-        <v>0.9999999999807538</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999998075384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.9173125932725393</v>
+        <v>0.91731259327253933</v>
       </c>
       <c r="C49">
-        <v>0.07600200551716238</v>
+        <v>7.600200551716238E-2</v>
       </c>
       <c r="D49">
         <v>64.97070198098794</v>
@@ -1591,14 +1736,12 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G49">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>55</v>
       </c>
       <c r="B50">
         <v>0.8964543211605247</v>
@@ -1607,32 +1750,30 @@
         <v>0.1682432421750541</v>
       </c>
       <c r="D50">
-        <v>64.16104384256428</v>
+        <v>64.161043842564283</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>-0.5824279987063529</v>
+        <v>-0.58242799870635287</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.8052518563583351</v>
+        <v>0.80525185635833507</v>
       </c>
       <c r="C51">
         <v>0.1601128371640525</v>
       </c>
       <c r="D51">
-        <v>65.61645665581636</v>
+        <v>65.616456655816364</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1641,17 +1782,15 @@
         <v>-1.089342394488112</v>
       </c>
       <c r="G51">
-        <v>0.9999999996159039</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>(Temperature_centered0.23 Age_centered-0.47) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999961590391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.8407140249440845</v>
+        <v>0.84071402494408454</v>
       </c>
       <c r="C52">
         <v>0.1400292833878034</v>
@@ -1666,70 +1805,64 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G52">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered0.5</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.898263120998601</v>
+        <v>0.89826312099860095</v>
       </c>
       <c r="C53">
         <v>0.1837877302410085</v>
       </c>
       <c r="D53">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>-0.5243911954795988</v>
+        <v>-0.52439119547959878</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.9378213759466513</v>
+        <v>0.93782137594665127</v>
       </c>
       <c r="C54">
         <v>0.1148077507582479</v>
       </c>
       <c r="D54">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>-0.5243911954795989</v>
+        <v>-0.52439119547959889</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.916496765780586</v>
+        <v>0.91649676578058603</v>
       </c>
       <c r="C55">
-        <v>0.07671724083436553</v>
+        <v>7.6717240834365527E-2</v>
       </c>
       <c r="D55">
         <v>64.97070198098794</v>
@@ -1741,120 +1874,110 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G55">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.8232552452151931</v>
+        <v>0.82325524521519311</v>
       </c>
       <c r="C56">
-        <v>0.1933763774731525</v>
+        <v>0.19337637747315251</v>
       </c>
       <c r="D56">
-        <v>65.82562448027946</v>
+        <v>65.825624480279458</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>-0.8279919206159742</v>
+        <v>-0.82799192061597415</v>
       </c>
       <c r="G56">
-        <v>0.9999999999999993</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered0.5) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.859510257935005</v>
+        <v>0.85951025793500502</v>
       </c>
       <c r="C57">
         <v>0.1379664616004776</v>
       </c>
       <c r="D57">
-        <v>65.87767307565159</v>
+        <v>65.877673075651586</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>-0.9431525744822232</v>
+        <v>-0.94315257448222323</v>
       </c>
       <c r="G57">
-        <v>0.9999999999995055</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered0.5</t>
-        </is>
+        <v>0.99999999999950551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>63</v>
       </c>
       <c r="B58">
         <v>1.044038605196296</v>
       </c>
       <c r="C58">
-        <v>0.08580307147540997</v>
+        <v>8.580307147540997E-2</v>
       </c>
       <c r="D58">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0.5243911954795989</v>
+        <v>0.52439119547959889</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>64</v>
       </c>
       <c r="B59">
         <v>1.020298779228201</v>
       </c>
       <c r="C59">
-        <v>0.2104994196918485</v>
+        <v>0.21049941969184849</v>
       </c>
       <c r="D59">
-        <v>64.77687805959606</v>
+        <v>64.776878059596058</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.09740368628604262</v>
+        <v>9.7403686286042623E-2</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.916496765780586</v>
+        <v>0.91649676578058603</v>
       </c>
       <c r="C60">
-        <v>0.07671724083436553</v>
+        <v>7.6717240834365527E-2</v>
       </c>
       <c r="D60">
         <v>64.97070198098794</v>
@@ -1866,48 +1989,44 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G60">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.9568580050124798</v>
+        <v>0.95685800501247975</v>
       </c>
       <c r="C61">
         <v>0.1013931025177259</v>
       </c>
       <c r="D61">
-        <v>64.19478508730313</v>
+        <v>64.194785087303131</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>-0.4161791958488231</v>
+        <v>-0.41617919584882312</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / (Temperature_centered-1.2 Age_centered1.48)</t>
-        </is>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.977261543921901</v>
+        <v>0.97726154392190101</v>
       </c>
       <c r="C62">
         <v>0.1319158225262087</v>
       </c>
       <c r="D62">
-        <v>64.40696627441349</v>
+        <v>64.406966274413492</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1919,42 +2038,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.8778380044751982</v>
+        <v>0.87783800447519822</v>
       </c>
       <c r="C63">
         <v>0.1120528346309483</v>
       </c>
       <c r="D63">
-        <v>65.84094259400658</v>
+        <v>65.840942594006577</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>-1.020735706205043</v>
+        <v>-1.0207357062050431</v>
       </c>
       <c r="G63">
-        <v>0.9999999999792195</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Temperature_centered0.23 Age_centered0.5 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+        <v>0.99999999997921951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.916496765780586</v>
+        <v>0.91649676578058603</v>
       </c>
       <c r="C64">
-        <v>0.07671724083436553</v>
+        <v>7.6717240834365527E-2</v>
       </c>
       <c r="D64">
         <v>64.97070198098794</v>
@@ -1966,79 +2081,73 @@
         <v>-1.041689323909573</v>
       </c>
       <c r="G64">
-        <v>0.9999999999477114</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered1.19 Age_centered1.48</t>
-        </is>
+        <v>0.99999999994771138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.898263120998601</v>
+        <v>0.89826312099860095</v>
       </c>
       <c r="C65">
         <v>0.1837877302410085</v>
       </c>
       <c r="D65">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>-0.5243911954795988</v>
+        <v>-0.52439119547959878</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>(Temperature_centered-1.2 Age_centered1.48) / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.9378213759466513</v>
+        <v>0.93782137594665127</v>
       </c>
       <c r="C66">
         <v>0.1148077507582479</v>
       </c>
       <c r="D66">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>-0.5243911954795989</v>
+        <v>-0.52439119547959889</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Temperature_centered1.19 Age_centered1.48 / Temperature_centered0.23 Age_centered1.48</t>
-        </is>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1.044038605196296</v>
       </c>
       <c r="C67">
-        <v>0.08580307147540997</v>
+        <v>8.580307147540997E-2</v>
       </c>
       <c r="D67">
-        <v>65.45680418282701</v>
+        <v>65.456804182827014</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0.5243911954795989</v>
+        <v>0.52439119547959889</v>
       </c>
       <c r="G67">
         <v>1</v>
